--- a/biology/Botanique/Saccharum_procerum/Saccharum_procerum.xlsx
+++ b/biology/Botanique/Saccharum_procerum/Saccharum_procerum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saccharum procerum est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae,  originaire de l'Asie du Sud, proche parente de la canne à sucre cultivée (Saccharum officinarum). 
 Ce sont des plantes herbacées, vivaces, cespiteuses, aux tiges (chaumes) robustes, dressées de 4 à 6 mètres de long.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition originelle de Saccharum procerum s'étend en Asie tempérée : Chine (Fujian, Guangdong, Guangxi, Guizhou, Hubei, Hunan, Xizang, Yunnan) et en Asie tropicale : Bangladesh, Bhoutan, Népal, Inde (Sikkim, Assam, Manipur, Meghalaya, Tripura, Bengale-Occidental, Arunachal Pradesh) et Birmanie. L'espèce a été introduite en Indochine[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition originelle de Saccharum procerum s'étend en Asie tempérée : Chine (Fujian, Guangdong, Guangxi, Guizhou, Hubei, Hunan, Xizang, Yunnan) et en Asie tropicale : Bangladesh, Bhoutan, Népal, Inde (Sikkim, Assam, Manipur, Meghalaya, Tripura, Bengale-Occidental, Arunachal Pradesh) et Birmanie. L'espèce a été introduite en Indochine. 
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Importance économique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Saccharum procerum est utilisée pour ses fibres, ainsi que comme plante fourragère et plante ornementale.
-Cette espèce appartient au pool génique tertiaire de la canne à sucre et constitue de ce fait une ressource génétique pour l'amélioration de la canne à sucre[2].
+Cette espèce appartient au pool génique tertiaire de la canne à sucre et constitue de ce fait une ressource génétique pour l'amélioration de la canne à sucre.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Erianthus elegans (Jeswiet ex Backer) Rümke
 Erianthus ciliaris var. elegans Jeswiet ex Backer
